--- a/[00]_Misc/Results.xlsx
+++ b/[00]_Misc/Results.xlsx
@@ -5,16 +5,14 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\88018\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\[003] Undergrad\7TH SEMESTER\Bachelor Thesis\Controller_Design\[00]_Misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
-    <sheet name="PID" sheetId="1" r:id="rId1"/>
-    <sheet name="Cascade" sheetId="2" r:id="rId2"/>
-    <sheet name="SMC" sheetId="3" r:id="rId3"/>
+    <sheet name="Results" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="74">
   <si>
     <t>Parameter</t>
   </si>
@@ -269,11 +267,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -299,6 +292,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -401,33 +400,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -442,32 +418,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="6">
     <dxf>
       <font>
         <b/>
@@ -508,26 +490,6 @@
         <b/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -561,18 +523,6 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -580,13 +530,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>857251</xdr:colOff>
+          <xdr:colOff>857250</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>1518046</xdr:colOff>
+          <xdr:colOff>1514475</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
@@ -619,7 +569,7 @@
             </a:ln>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="6350" cap="flat" cmpd="sng">
+                <a14:hiddenLine w="6350">
                   <a:solidFill>
                     <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
                   </a:solidFill>
@@ -632,7 +582,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -661,7 +611,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>648890</xdr:colOff>
+          <xdr:colOff>647700</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
@@ -673,7 +623,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1027" name="Check Box 3" hidden="1">
+            <xdr:cNvPr id="1027" name="Check Box 3" descr="Not encircled" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1027"/>
@@ -700,7 +650,7 @@
             </a:ln>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="6350" cap="flat" cmpd="sng">
+                <a14:hiddenLine w="6350">
                   <a:solidFill>
                     <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
                   </a:solidFill>
@@ -713,7 +663,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -742,15 +692,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>628243</xdr:colOff>
+          <xdr:colOff>628650</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>4054</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>1468927</xdr:colOff>
+          <xdr:colOff>1466850</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>186448</xdr:rowOff>
+          <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -781,7 +731,7 @@
             </a:ln>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="6350" cap="flat" cmpd="sng">
+                <a14:hiddenLine w="6350">
                   <a:solidFill>
                     <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
                   </a:solidFill>
@@ -794,7 +744,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -829,9 +779,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>1464469</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>1466850</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -862,7 +812,7 @@
             </a:ln>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="6350" cap="flat" cmpd="sng">
+                <a14:hiddenLine w="6350">
                   <a:solidFill>
                     <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
                   </a:solidFill>
@@ -875,7 +825,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -904,15 +854,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>640404</xdr:colOff>
+          <xdr:colOff>638175</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>11754</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>1453120</xdr:colOff>
+          <xdr:colOff>1457325</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>181786</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -943,7 +893,7 @@
             </a:ln>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="6350" cap="flat" cmpd="sng">
+                <a14:hiddenLine w="6350">
                   <a:solidFill>
                     <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
                   </a:solidFill>
@@ -956,255 +906,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>Validated</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>628243</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>4054</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>1471308</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>186448</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="Check Box 1" descr="Not encircled" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="00FF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="11">
-                <a:alpha val="70000"/>
-              </a:srgbClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="6350" cap="flat" cmpd="sng">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:prstDash val="lgDash"/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>Not encircled</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>628650</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>1466850</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2050" name="Check Box 2" descr="Not encircled" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2050"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="00FF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="11">
-                <a:alpha val="70000"/>
-              </a:srgbClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="6350" cap="flat" cmpd="sng">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:prstDash val="lgDash"/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-GB" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>Not encircled</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>640404</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>11754</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>1455501</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>181786</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2051" name="Check Box 3" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2051"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="00FF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="11">
-                <a:alpha val="70000"/>
-              </a:srgbClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="6350" cap="flat" cmpd="sng">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:prstDash val="lgDash"/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -1260,31 +962,6 @@
   <tableColumns count="4">
     <tableColumn id="1" name="Criteria Index" dataDxfId="1"/>
     <tableColumn id="2" name="Parameter" dataDxfId="0"/>
-    <tableColumn id="3" name="Value"/>
-    <tableColumn id="4" name="Frequency"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="A1:C21" totalsRowShown="0">
-  <autoFilter ref="A1:C21"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="NN" dataDxfId="7"/>
-    <tableColumn id="2" name="Parameter" dataDxfId="6"/>
-    <tableColumn id="3" name="Vaue"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="A1:D20" totalsRowShown="0">
-  <autoFilter ref="A1:D20"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="Criteria Index"/>
-    <tableColumn id="2" name="Parameter"/>
     <tableColumn id="3" name="Value"/>
     <tableColumn id="4" name="Frequency"/>
   </tableColumns>
@@ -1558,7 +1235,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1577,454 +1254,454 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="D1" s="10" t="s">
+      <c r="B1" s="18"/>
+      <c r="D1" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="11"/>
-      <c r="H1" s="10" t="s">
+      <c r="E1" s="19"/>
+      <c r="F1" s="18"/>
+      <c r="H1" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="11"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="18"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="25" t="s">
+      <c r="J3" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="K3" s="6"/>
+      <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21" t="s">
+      <c r="D4" s="10"/>
+      <c r="E4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="21" t="s">
+      <c r="H4" s="3"/>
+      <c r="I4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="25" t="s">
+      <c r="J4" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="K4" s="6"/>
+      <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="21" t="s">
+      <c r="B5" s="4"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="21" t="s">
+      <c r="F5" s="4"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="6"/>
+      <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="21" t="s">
+      <c r="D6" s="10"/>
+      <c r="E6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="6"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="6">
         <v>0.20021700000000001</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="6"/>
-      <c r="H7" s="12" t="s">
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="2"/>
+      <c r="H7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="I7" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="25" t="s">
+      <c r="J7" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="6"/>
+      <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="21" t="s">
+      <c r="H8" s="3"/>
+      <c r="I8" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="25" t="s">
+      <c r="J8" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="K8" s="6"/>
+      <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="21" t="s">
+      <c r="B9" s="4"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="21" t="s">
+      <c r="H9" s="3"/>
+      <c r="I9" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="J9" s="25" t="s">
+      <c r="J9" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="K9" s="6"/>
+      <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="21" t="s">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="6"/>
+      <c r="F10" s="4"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="21" t="s">
+      <c r="D11" s="12"/>
+      <c r="E11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I11" s="21" t="s">
+      <c r="I11" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="J11" s="25" t="s">
+      <c r="J11" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="K11" s="6"/>
+      <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="21" t="s">
+      <c r="D12" s="12"/>
+      <c r="E12" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="13"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="21" t="s">
+      <c r="F12" s="4"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J12" s="25" t="s">
+      <c r="J12" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="K12" s="6"/>
+      <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="6"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="21" t="s">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="2"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="J13" s="25" t="s">
+      <c r="J13" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="K13" s="6"/>
+      <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="6"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="21" t="s">
+      <c r="D15" s="12"/>
+      <c r="E15" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I15" s="21" t="s">
+      <c r="I15" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="J15" s="25" t="s">
+      <c r="J15" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="K15" s="6"/>
+      <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="6">
         <v>0.45906400000000003</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="13"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="21" t="s">
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="4"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J16" s="25" t="s">
+      <c r="J16" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="K16" s="6"/>
+      <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13"/>
-      <c r="D17" s="22" t="s">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="D17" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H17" s="12"/>
-      <c r="I17" s="21" t="s">
+      <c r="H17" s="3"/>
+      <c r="I17" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="J17" s="25" t="s">
+      <c r="J17" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="K17" s="6"/>
+      <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="21" t="s">
+      <c r="D18" s="12"/>
+      <c r="E18" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="H18" s="12"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="6"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="21" t="s">
+      <c r="D19" s="12"/>
+      <c r="E19" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="6">
         <v>2.7399999999999998E-3</v>
       </c>
-      <c r="H19" s="12" t="s">
+      <c r="H19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="21" t="s">
+      <c r="I19" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="J19" s="25" t="s">
+      <c r="J19" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="K19" s="13" t="s">
+      <c r="K19" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D20" s="20"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="13"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="21" t="s">
+      <c r="D20" s="10"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="4"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J20" s="25" t="s">
+      <c r="J20" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="K20" s="13" t="s">
+      <c r="K20" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="H21" s="16"/>
-      <c r="I21" s="24" t="s">
+      <c r="H21" s="7"/>
+      <c r="I21" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="J21" s="26" t="s">
+      <c r="J21" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="K21" s="17" t="s">
+      <c r="K21" s="8" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="23"/>
-      <c r="E22" s="24" t="s">
+      <c r="D22" s="13"/>
+      <c r="E22" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="F22" s="8" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2160,482 +1837,4 @@
     <tablePart r:id="rId11"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:C21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" customWidth="1"/>
-    <col min="8" max="8" width="22.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="4"/>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="4"/>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="3">
-        <v>2.7399999999999998E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F22" s="8"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="Check Box 1">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" altText="Not encircled">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>628650</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>1466850</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>190500</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2050" r:id="rId4" name="Check Box 2">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" altText="Not encircled">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>628650</xdr:colOff>
-                    <xdr:row>8</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>1466850</xdr:colOff>
-                    <xdr:row>8</xdr:row>
-                    <xdr:rowOff>190500</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2051" r:id="rId5" name="Check Box 3">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
-                    <xdr:row>10</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>1457325</xdr:colOff>
-                    <xdr:row>10</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <tableParts count="1">
-    <tablePart r:id="rId6"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
-  <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection sqref="A1:D20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
 </file>